--- a/formatted/candidates/candidates-1/candidates-positions-wanted-second.xlsx
+++ b/formatted/candidates/candidates-1/candidates-positions-wanted-second.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe.meade/Git/MarineMax/tcn.migration/formatted/candidates-1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe.meade/Git/MarineMax/tcn.migration/formatted/candidates/candidates-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA8053B-4716-0B44-849A-D7E824F1F5F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BBF76CE-54C7-0140-ACC9-463A8145E147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="52200" windowHeight="25260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -103,7 +103,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -829,7 +829,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B51" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>